--- a/data/stat probs/boban marjanovic stat probs - condition.xlsx
+++ b/data/stat probs/boban marjanovic stat probs - condition.xlsx
@@ -19,28 +19,28 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
@@ -581,22 +581,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -999,22 +999,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1835,22 +1835,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2185,6 +2185,458 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2253,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2285,22 +2737,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2317,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2349,16 +2801,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
         <v>60</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2387,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2413,16 +2865,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2445,16 +2897,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2477,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2509,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2541,10 +2993,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2573,10 +3025,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2602,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2671,22 +3123,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2703,22 +3155,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2735,16 +3187,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2767,16 +3219,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
         <v>60</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2805,10 +3257,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2831,16 +3283,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2863,16 +3315,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2895,10 +3347,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2927,10 +3379,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2959,10 +3411,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2991,10 +3443,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3020,7 +3472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3089,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3246,7 +3698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3315,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3464,842 +3916,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>90</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>70</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>90</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>90</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>70</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>90</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4314,7 +3930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4377,16 +3993,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4447,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4462,70 +4078,6 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4603,22 +4155,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4958,7 +4510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5021,16 +4573,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5091,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5106,70 +4658,6 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5247,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5409,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5571,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5733,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5827,330 +5315,6 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6219,16 +5383,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6408,7 +5572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6477,16 +5641,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6658,6 +5822,586 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6735,22 +6479,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7025,22 +6769,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7379,22 +7123,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7601,586 +7345,6 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8249,22 +7413,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8406,7 +7570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8475,22 +7639,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8624,6 +7788,650 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8701,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8959,22 +8767,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9217,22 +9025,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9475,22 +9283,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9733,22 +9541,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9991,22 +9799,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10345,22 +10153,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10603,16 +10411,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10861,16 +10669,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11119,16 +10927,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11249,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11385,10 +11193,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11515,10 +11323,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11639,22 +11447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11961,22 +11769,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12283,16 +12091,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12509,22 +12317,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12927,16 +12735,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13153,16 +12961,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13379,16 +13187,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13605,22 +13413,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13959,22 +13767,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14313,16 +14121,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14667,16 +14475,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15021,16 +14829,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15439,16 +15247,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15857,22 +15665,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16275,22 +16083,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16693,22 +16501,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17111,16 +16919,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17273,16 +17081,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17435,16 +17243,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17597,16 +17405,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17759,16 +17567,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18081,16 +17889,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18403,22 +18211,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18725,22 +18533,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19047,22 +18855,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19369,22 +19177,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19787,22 +19595,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20109,22 +19917,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20335,22 +20143,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20567,10 +20375,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20697,10 +20505,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20821,22 +20629,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21047,22 +20855,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21273,22 +21081,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21563,22 +21371,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21853,22 +21661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22175,22 +21983,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22593,22 +22401,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22915,16 +22723,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23109,16 +22917,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23303,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23497,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23887,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24017,16 +23825,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24147,16 +23955,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24341,22 +24149,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24759,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24953,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -24965,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25147,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -25159,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25341,10 +25149,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -25353,10 +25161,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25535,10 +25343,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -25547,10 +25355,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
